--- a/data-raw/countryprofile_translation.xlsx
+++ b/data-raw/countryprofile_translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saharahmed/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bmat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{01E57D2D-717D-E94E-8E76-6B9B581AE666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{495C78B2-B9EC-4AAE-90F0-4247825794F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB893CC6-4077-4C72-842C-99EE70BD5AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="1785" windowWidth="30465" windowHeight="16950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>Estimación puntual de ritmo de reducción anual promedio</t>
   </si>
   <si>
-    <t>Rréduction de taux annuelle</t>
-  </si>
-  <si>
     <t>table 2 column names 3</t>
   </si>
   <si>
@@ -1510,6 +1507,9 @@
   <si>
     <t xml:space="preserve">
 Los datos de Serbia no incluyen datos de Kosovo (Resolución del Consejo de Seguridad de las Naciones Unidas 1244 (1999)).</t>
+  </si>
+  <si>
+    <t>Réduction de taux annuelle</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1923,7 +1923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1933,12 +1933,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="26.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="56.5" style="1" customWidth="1"/>
@@ -1946,7 +1946,7 @@
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.100000000000001">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.100000000000001">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="68.099999999999994">
+    <row r="3" spans="1:6" ht="63">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.100000000000001">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.100000000000001">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.100000000000001">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.100000000000001">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.100000000000001">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.100000000000001">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.100000000000001">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33.950000000000003">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33.950000000000003">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51">
+    <row r="13" spans="1:6" ht="47.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="84.95">
+    <row r="14" spans="1:6" ht="78.75">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="84.95">
+    <row r="15" spans="1:6" ht="78.75">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="68.099999999999994">
+    <row r="16" spans="1:6" ht="63">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.100000000000001">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.100000000000001">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -2252,97 +2252,97 @@
         <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.100000000000001">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.100000000000001">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.100000000000001">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.100000000000001">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.100000000000001">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.100000000000001">
-      <c r="A24" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
@@ -2357,400 +2357,400 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.100000000000001">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.100000000000001">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.100000000000001">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.100000000000001">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.100000000000001">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.100000000000001">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.100000000000001">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="31.5">
+      <c r="A32" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="32.25">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="47.25">
+      <c r="A33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="51">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="31.5">
+      <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="33.950000000000003">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:5" s="6" customFormat="1" ht="31.5">
+      <c r="A35" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="6" customFormat="1" ht="33.950000000000003">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="31.5">
+      <c r="A36" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="33.950000000000003">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="47.25">
+      <c r="A37" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="51">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="47.25">
+      <c r="A38" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="51">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17.100000000000001">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.100000000000001">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.100000000000001">
-      <c r="A41" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.100000000000001">
-      <c r="A42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17.100000000000001">
-      <c r="A43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.100000000000001">
-      <c r="A44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.100000000000001">
-      <c r="A45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.100000000000001">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.100000000000001">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.100000000000001">
-      <c r="A48" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
@@ -2765,400 +2765,400 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.100000000000001">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17.100000000000001">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="31.5">
+      <c r="A51" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="33.950000000000003">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:5" s="6" customFormat="1">
+      <c r="A52" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" s="6" customFormat="1" ht="17.100000000000001">
-      <c r="A52" s="6" t="s">
+      <c r="B52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E52" s="6" t="s">
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.100000000000001">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="17.100000000000001">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.100000000000001">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.100000000000001">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.100000000000001">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.100000000000001">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:5" ht="31.5">
+      <c r="A59" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="33.950000000000003">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:5" ht="31.5">
+      <c r="A60" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="33.950000000000003">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:5" ht="31.5">
+      <c r="A61" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="33.950000000000003">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.100000000000001">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="31.5">
+      <c r="A63" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="33.950000000000003">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:5" ht="47.25">
+      <c r="A64" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="51">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.100000000000001">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.100000000000001">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.100000000000001">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.100000000000001">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17.100000000000001">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.100000000000001">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.100000000000001">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17.100000000000001">
-      <c r="A72" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
@@ -3173,94 +3173,94 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.100000000000001">
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="47.25">
+      <c r="A74" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="51">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.100000000000001">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:5" ht="31.5">
+      <c r="A76" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="33.950000000000003">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E76" s="1" t="s">
+    </row>
+    <row r="77" spans="1:5" ht="31.5">
+      <c r="A77" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="33.950000000000003">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="6" customFormat="1" ht="29.25" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>7</v>
@@ -3269,338 +3269,338 @@
         <v>16</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="36" customHeight="1">
       <c r="A79" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E79" s="3" t="s">
+    </row>
+    <row r="80" spans="1:5" ht="31.5">
+      <c r="A80" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="33.950000000000003">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="17.100000000000001">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.100000000000001">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.100000000000001">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:5" ht="31.5">
+      <c r="A84" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="33.950000000000003">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:5" ht="31.5">
+      <c r="A85" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="33.950000000000003">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:5" ht="31.5">
+      <c r="A86" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="33.950000000000003">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:5" ht="31.5">
+      <c r="A87" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="33.950000000000003">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:5" ht="31.5">
+      <c r="A88" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="33.950000000000003">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:5" ht="31.5">
+      <c r="A89" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="33.950000000000003">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E89" s="1" t="s">
+    </row>
+    <row r="90" spans="1:5" ht="31.5">
+      <c r="A90" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="33.950000000000003">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E90" s="1" t="s">
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="17.100000000000001">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E91" s="1" t="s">
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.100000000000001">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E92" s="1" t="s">
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.100000000000001">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="17.100000000000001">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.100000000000001">
-      <c r="A95" s="1" t="s">
+      <c r="B95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E95" s="1" t="s">
+    </row>
+    <row r="96" spans="1:5" s="5" customFormat="1" ht="120">
+      <c r="A96" s="5" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" s="5" customFormat="1" ht="135.94999999999999">
-      <c r="A96" s="5" t="s">
+      <c r="B96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E96" s="5" t="s">
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="17.100000000000001">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E97" s="1" t="s">
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="17.100000000000001">
-      <c r="A98" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>7</v>
@@ -3615,222 +3615,222 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.100000000000001">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E99" s="1" t="s">
+    </row>
+    <row r="100" spans="1:5" ht="31.5">
+      <c r="A100" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="33.950000000000003">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:5" ht="204.75">
+      <c r="A101" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="221.1">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="17.100000000000001">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E102" s="1" t="s">
+    </row>
+    <row r="103" spans="1:5" ht="47.25">
+      <c r="A103" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="51">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="94.5">
+      <c r="A104" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="119.1">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="D104" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="47.25">
+      <c r="A105" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="51">
-      <c r="A105" s="1" t="s">
+      <c r="D105" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="6" customFormat="1" ht="31.5">
+      <c r="A106" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="6" customFormat="1" ht="33.950000000000003">
-      <c r="A106" s="6" t="s">
+      <c r="B106" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="110.25">
+      <c r="A107" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="119.1">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:5" ht="110.25">
+      <c r="A108" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="119.1">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="78.75">
+      <c r="A109" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="84.95">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="47.25">
+      <c r="A110" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="51">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="5" customFormat="1" ht="45">
+      <c r="A111" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="5" customFormat="1" ht="51">
-      <c r="A111" s="5" t="s">
+      <c r="B111" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3840,18 +3840,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4078,13 +4078,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786DDE83-27C4-4808-B649-BE12719247E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{335389A8-2B3D-4921-96AC-F758DF5A7B43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{335389A8-2B3D-4921-96AC-F758DF5A7B43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786DDE83-27C4-4808-B649-BE12719247E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B0DB68-0392-4BBA-8318-E638343C0674}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B0DB68-0392-4BBA-8318-E638343C0674}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="698df9a5-162f-4433-85ad-f727d9a68241"/>
+    <ds:schemaRef ds:uri="b3628224-3ea4-4f29-b92e-ae9903597121"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>